--- a/data/georgia_census/samegrelo/poti/education_graduates.xlsx
+++ b/data/georgia_census/samegrelo/poti/education_graduates.xlsx
@@ -1845,13 +1845,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9C6991C-C5AF-4B44-BE28-8BD0F33B0549}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A999F963-EB33-43FF-9A2C-C425F40A4DDC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{024B9E71-53D6-4150-9F20-CC5CDBBFCBAC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA2BE0A6-8A81-4350-A17F-343C3D177697}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A086463A-2E1D-4E13-BEF1-E13B90B0ACE7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6F1EF75-D85C-4271-91DE-01FDBC814DB0}"/>
 </file>